--- a/team_specific_matrix/UC Davis_B.xlsx
+++ b/team_specific_matrix/UC Davis_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2067669172932331</v>
+        <v>0.2113564668769716</v>
       </c>
       <c r="C2">
-        <v>0.5338345864661654</v>
+        <v>0.526813880126183</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0112781954887218</v>
+        <v>0.009463722397476341</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003759398496240601</v>
+        <v>0.003154574132492113</v>
       </c>
       <c r="P2">
-        <v>0.1503759398496241</v>
+        <v>0.1545741324921136</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09398496240601503</v>
+        <v>0.0946372239747634</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03424657534246575</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0410958904109589</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.773972602739726</v>
+        <v>0.7660818713450293</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1506849315068493</v>
+        <v>0.1695906432748538</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7954545454545454</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2045454545454546</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06091370558375635</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005076142131979695</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="F6">
-        <v>0.05583756345177665</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3197969543147208</v>
+        <v>0.3433476394849785</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02538071065989848</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1573604060913706</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="R6">
-        <v>0.04060913705583756</v>
+        <v>0.03433476394849785</v>
       </c>
       <c r="S6">
-        <v>0.3350253807106599</v>
+        <v>0.3218884120171674</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119047619047619</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04761904761904762</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04166666666666666</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1011904761904762</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0119047619047619</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.130952380952381</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S7">
-        <v>0.4761904761904762</v>
+        <v>0.4494949494949495</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09815950920245399</v>
+        <v>0.09974424552429667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03374233128834356</v>
+        <v>0.03324808184143223</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05521472392638037</v>
+        <v>0.05370843989769821</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1196319018404908</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02760736196319018</v>
+        <v>0.02557544757033248</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1656441717791411</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="R8">
-        <v>0.08588957055214724</v>
+        <v>0.09207161125319693</v>
       </c>
       <c r="S8">
-        <v>0.4141104294478528</v>
+        <v>0.4092071611253197</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1081081081081081</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01351351351351351</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
-        <v>0.006756756756756757</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="F9">
-        <v>0.08783783783783784</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1148648648648649</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02702702702702703</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1216216216216216</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="R9">
-        <v>0.07432432432432433</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="S9">
-        <v>0.4459459459459459</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1235521235521236</v>
+        <v>0.1235584843492586</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02316602316602316</v>
+        <v>0.02306425041186162</v>
       </c>
       <c r="E10">
-        <v>0.0009652509652509653</v>
+        <v>0.0008237232289950577</v>
       </c>
       <c r="F10">
-        <v>0.07432432432432433</v>
+        <v>0.07907742998352553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1148648648648649</v>
+        <v>0.114497528830313</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02027027027027027</v>
+        <v>0.01976935749588138</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1969111969111969</v>
+        <v>0.2009884678747941</v>
       </c>
       <c r="R10">
-        <v>0.0637065637065637</v>
+        <v>0.06177924217462932</v>
       </c>
       <c r="S10">
-        <v>0.3822393822393823</v>
+        <v>0.3764415156507414</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1292775665399239</v>
+        <v>0.1469648562300319</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09505703422053231</v>
+        <v>0.08945686900958466</v>
       </c>
       <c r="K11">
-        <v>0.1749049429657795</v>
+        <v>0.1853035143769968</v>
       </c>
       <c r="L11">
-        <v>0.5893536121673004</v>
+        <v>0.5686900958466453</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01140684410646388</v>
+        <v>0.009584664536741214</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7716049382716049</v>
+        <v>0.7621621621621621</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1790123456790123</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03703703703703703</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01234567901234568</v>
+        <v>0.01081081081081081</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4615384615384616</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4615384615384616</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0418848167539267</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1151832460732984</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="I15">
-        <v>0.08376963350785341</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="J15">
-        <v>0.3193717277486911</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="K15">
-        <v>0.06282722513089005</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02094240837696335</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N15">
-        <v>0.005235602094240838</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O15">
-        <v>0.0418848167539267</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3089005235602094</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02197802197802198</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1538461538461539</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="I16">
-        <v>0.07692307692307693</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="J16">
-        <v>0.4395604395604396</v>
+        <v>0.4345794392523364</v>
       </c>
       <c r="K16">
-        <v>0.1208791208791209</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03846153846153846</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05494505494505494</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09340659340659341</v>
+        <v>0.102803738317757</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0243161094224924</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1580547112462006</v>
+        <v>0.1532663316582915</v>
       </c>
       <c r="I17">
-        <v>0.08206686930091185</v>
+        <v>0.09296482412060302</v>
       </c>
       <c r="J17">
-        <v>0.4164133738601823</v>
+        <v>0.4045226130653266</v>
       </c>
       <c r="K17">
-        <v>0.1276595744680851</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01519756838905775</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0547112462006079</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.121580547112462</v>
+        <v>0.1231155778894472</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.06349206349206349</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="I18">
-        <v>0.06349206349206349</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J18">
-        <v>0.4206349206349206</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.1031746031746032</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02380952380952381</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02294455066921606</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1998087954110899</v>
+        <v>0.2042483660130719</v>
       </c>
       <c r="I19">
-        <v>0.08508604206500955</v>
+        <v>0.08169934640522876</v>
       </c>
       <c r="J19">
-        <v>0.367112810707457</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="K19">
-        <v>0.1137667304015296</v>
+        <v>0.1143790849673203</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02007648183556405</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07648183556405354</v>
+        <v>0.07516339869281045</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1147227533460803</v>
+        <v>0.1151960784313725</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Davis_B.xlsx
+++ b/team_specific_matrix/UC Davis_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2113564668769716</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.526813880126183</v>
+        <v>0.5327380952380952</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009463722397476341</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003154574132492113</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="P2">
-        <v>0.1545741324921136</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0946372239747634</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02923976608187134</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03508771929824561</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7660818713450293</v>
+        <v>0.7663043478260869</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1695906432748538</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7884615384615384</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2115384615384615</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06437768240343347</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="E6">
-        <v>0.004291845493562232</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="F6">
-        <v>0.04721030042918455</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3433476394849785</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02145922746781116</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1630901287553648</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="R6">
-        <v>0.03433476394849785</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="S6">
-        <v>0.3218884120171674</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1262626262626263</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04040404040404041</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04040404040404041</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01515151515151515</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1464646464646465</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="R7">
-        <v>0.0707070707070707</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="S7">
-        <v>0.4494949494949495</v>
+        <v>0.4495412844036697</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09974424552429667</v>
+        <v>0.1050119331742243</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03324808184143223</v>
+        <v>0.03579952267303103</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05370843989769821</v>
+        <v>0.05489260143198091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1176470588235294</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02557544757033248</v>
+        <v>0.02625298329355609</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1687979539641944</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="R8">
-        <v>0.09207161125319693</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="S8">
-        <v>0.4092071611253197</v>
+        <v>0.4081145584725537</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1046511627906977</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="E9">
-        <v>0.005813953488372093</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="F9">
-        <v>0.0755813953488372</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1046511627906977</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02906976744186046</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1220930232558139</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="R9">
-        <v>0.06976744186046512</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="S9">
-        <v>0.4651162790697674</v>
+        <v>0.4636871508379888</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1235584843492586</v>
+        <v>0.1225905936777178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02306425041186162</v>
+        <v>0.02313030069390902</v>
       </c>
       <c r="E10">
-        <v>0.0008237232289950577</v>
+        <v>0.0007710100231303007</v>
       </c>
       <c r="F10">
-        <v>0.07907742998352553</v>
+        <v>0.07941403238242097</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.114497528830313</v>
+        <v>0.1148804934464148</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01976935749588138</v>
+        <v>0.02081727062451812</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2009884678747941</v>
+        <v>0.2012336160370085</v>
       </c>
       <c r="R10">
-        <v>0.06177924217462932</v>
+        <v>0.06245181187355436</v>
       </c>
       <c r="S10">
-        <v>0.3764415156507414</v>
+        <v>0.3747108712413261</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1469648562300319</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08945686900958466</v>
+        <v>0.08682634730538923</v>
       </c>
       <c r="K11">
-        <v>0.1853035143769968</v>
+        <v>0.1766467065868264</v>
       </c>
       <c r="L11">
-        <v>0.5686900958466453</v>
+        <v>0.5838323353293413</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009584664536741214</v>
+        <v>0.008982035928143712</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7621621621621621</v>
+        <v>0.7673267326732673</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1945945945945946</v>
+        <v>0.1881188118811881</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L12">
-        <v>0.03243243243243243</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01081081081081081</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4444444444444444</v>
+        <v>0.48</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4888888888888889</v>
+        <v>0.46</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04504504504504504</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1171171171171171</v>
+        <v>0.1193415637860082</v>
       </c>
       <c r="I15">
-        <v>0.07657657657657657</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="J15">
-        <v>0.3153153153153153</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="K15">
-        <v>0.05855855855855856</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01801801801801802</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="N15">
-        <v>0.004504504504504504</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O15">
-        <v>0.04054054054054054</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3243243243243243</v>
+        <v>0.3127572016460906</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02336448598130841</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1588785046728972</v>
+        <v>0.148471615720524</v>
       </c>
       <c r="I16">
-        <v>0.07009345794392523</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="J16">
-        <v>0.4345794392523364</v>
+        <v>0.4279475982532751</v>
       </c>
       <c r="K16">
-        <v>0.1261682242990654</v>
+        <v>0.1353711790393013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03738317757009346</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04672897196261682</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.102803738317757</v>
+        <v>0.09606986899563319</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02512562814070352</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1532663316582915</v>
+        <v>0.1485849056603774</v>
       </c>
       <c r="I17">
-        <v>0.09296482412060302</v>
+        <v>0.08726415094339622</v>
       </c>
       <c r="J17">
-        <v>0.4045226130653266</v>
+        <v>0.4033018867924528</v>
       </c>
       <c r="K17">
-        <v>0.1256281407035176</v>
+        <v>0.1344339622641509</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01507537688442211</v>
+        <v>0.01650943396226415</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06030150753768844</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1231155778894472</v>
+        <v>0.1202830188679245</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05517241379310345</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1586206896551724</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="I18">
-        <v>0.06896551724137931</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J18">
-        <v>0.4137931034482759</v>
+        <v>0.4113924050632912</v>
       </c>
       <c r="K18">
-        <v>0.103448275862069</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02758620689655172</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06896551724137931</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.103448275862069</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02450980392156863</v>
+        <v>0.02459646425826287</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2042483660130719</v>
+        <v>0.2052267486548809</v>
       </c>
       <c r="I19">
-        <v>0.08169934640522876</v>
+        <v>0.07993850883935434</v>
       </c>
       <c r="J19">
-        <v>0.3651960784313725</v>
+        <v>0.3658724058416603</v>
       </c>
       <c r="K19">
-        <v>0.1143790849673203</v>
+        <v>0.1129900076863951</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0196078431372549</v>
+        <v>0.0207532667179093</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007686395080707148</v>
       </c>
       <c r="O19">
-        <v>0.07516339869281045</v>
+        <v>0.07609531129900077</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1151960784313725</v>
+        <v>0.1137586471944658</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Davis_B.xlsx
+++ b/team_specific_matrix/UC Davis_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2083333333333333</v>
+        <v>0.2069970845481049</v>
       </c>
       <c r="C2">
-        <v>0.5327380952380952</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008928571428571428</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002976190476190476</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="P2">
-        <v>0.1517857142857143</v>
+        <v>0.1516034985422741</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09523809523809523</v>
+        <v>0.09912536443148688</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02717391304347826</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03260869565217391</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7663043478260869</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1739130434782609</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7894736842105263</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2105263157894737</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05952380952380952</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003968253968253968</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="E6">
-        <v>0.003968253968253968</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="F6">
-        <v>0.05158730158730158</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3452380952380952</v>
+        <v>0.3320610687022901</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02380952380952381</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1547619047619048</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="R6">
-        <v>0.03571428571428571</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="S6">
-        <v>0.3214285714285715</v>
+        <v>0.3206106870229007</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1238532110091743</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03669724770642202</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03669724770642202</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192660550458716</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01376146788990826</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1467889908256881</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="R7">
-        <v>0.07339449541284404</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="S7">
-        <v>0.4495412844036697</v>
+        <v>0.4581497797356828</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1050119331742243</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03579952267303103</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05489260143198091</v>
+        <v>0.05787037037037037</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1097852028639618</v>
+        <v>0.1087962962962963</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02625298329355609</v>
+        <v>0.02546296296296296</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1670644391408115</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="R8">
-        <v>0.09307875894988067</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S8">
-        <v>0.4081145584725537</v>
+        <v>0.400462962962963</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1005586592178771</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0223463687150838</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="E9">
-        <v>0.00558659217877095</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="F9">
-        <v>0.07262569832402235</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.111731843575419</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02793296089385475</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1229050279329609</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R9">
-        <v>0.07262569832402235</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="S9">
-        <v>0.4636871508379888</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1225905936777178</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02313030069390902</v>
+        <v>0.02322097378277153</v>
       </c>
       <c r="E10">
-        <v>0.0007710100231303007</v>
+        <v>0.000749063670411985</v>
       </c>
       <c r="F10">
-        <v>0.07941403238242097</v>
+        <v>0.08089887640449438</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1148804934464148</v>
+        <v>0.1153558052434457</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02081727062451812</v>
+        <v>0.02097378277153558</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2012336160370085</v>
+        <v>0.201498127340824</v>
       </c>
       <c r="R10">
-        <v>0.06245181187355436</v>
+        <v>0.06367041198501873</v>
       </c>
       <c r="S10">
-        <v>0.3747108712413261</v>
+        <v>0.3737827715355805</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1437125748502994</v>
+        <v>0.1469740634005764</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08682634730538923</v>
+        <v>0.08645533141210375</v>
       </c>
       <c r="K11">
-        <v>0.1766467065868264</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="L11">
-        <v>0.5838323353293413</v>
+        <v>0.579250720461095</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008982035928143712</v>
+        <v>0.008645533141210375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7673267326732673</v>
+        <v>0.7740384615384616</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1881188118811881</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="K12">
-        <v>0.004950495049504951</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="L12">
-        <v>0.0297029702970297</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.48</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.46</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04526748971193416</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1193415637860082</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="I15">
-        <v>0.07818930041152264</v>
+        <v>0.08032128514056225</v>
       </c>
       <c r="J15">
-        <v>0.3209876543209876</v>
+        <v>0.3172690763052209</v>
       </c>
       <c r="K15">
-        <v>0.05761316872427984</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01646090534979424</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="N15">
-        <v>0.00411522633744856</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="O15">
-        <v>0.04526748971193416</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3127572016460906</v>
+        <v>0.3132530120481928</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02620087336244541</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.148471615720524</v>
+        <v>0.1502145922746781</v>
       </c>
       <c r="I16">
-        <v>0.07423580786026202</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="J16">
-        <v>0.4279475982532751</v>
+        <v>0.4248927038626609</v>
       </c>
       <c r="K16">
-        <v>0.1353711790393013</v>
+        <v>0.1373390557939914</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03493449781659388</v>
+        <v>0.03433476394849785</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05676855895196507</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09606986899563319</v>
+        <v>0.09442060085836911</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02830188679245283</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1485849056603774</v>
+        <v>0.15</v>
       </c>
       <c r="I17">
-        <v>0.08726415094339622</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="J17">
-        <v>0.4033018867924528</v>
+        <v>0.4113636363636364</v>
       </c>
       <c r="K17">
-        <v>0.1344339622641509</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01650943396226415</v>
+        <v>0.01590909090909091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06132075471698113</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1202830188679245</v>
+        <v>0.1181818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05063291139240506</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1835443037974684</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="I18">
-        <v>0.06329113924050633</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="J18">
-        <v>0.4113924050632912</v>
+        <v>0.3963414634146342</v>
       </c>
       <c r="K18">
-        <v>0.0949367088607595</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03164556962025317</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06329113924050633</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1012658227848101</v>
+        <v>0.1036585365853658</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02459646425826287</v>
+        <v>0.02384500745156483</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2052267486548809</v>
+        <v>0.2041728763040238</v>
       </c>
       <c r="I19">
-        <v>0.07993850883935434</v>
+        <v>0.08047690014903129</v>
       </c>
       <c r="J19">
-        <v>0.3658724058416603</v>
+        <v>0.3666169895678092</v>
       </c>
       <c r="K19">
-        <v>0.1129900076863951</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0207532667179093</v>
+        <v>0.02086438152011923</v>
       </c>
       <c r="N19">
-        <v>0.0007686395080707148</v>
+        <v>0.0007451564828614009</v>
       </c>
       <c r="O19">
-        <v>0.07609531129900077</v>
+        <v>0.07526080476900149</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1137586471944658</v>
+        <v>0.1132637853949329</v>
       </c>
     </row>
   </sheetData>
